--- a/Sąrašas.xlsx
+++ b/Sąrašas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egle\Documents\Python projects\excel reader\Invoice-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BA16FE-B597-40C6-923D-4CC396833DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C45BF54-F6C5-4D9A-9BE4-1EB6CA8CE543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{35F6AE6D-35F4-4E62-9AB8-DFF9D73AB516}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>Vardas</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Būsena (įtraukti į sąrašus)</t>
   </si>
   <si>
-    <t>Pirmas</t>
-  </si>
-  <si>
     <t>Vardas1</t>
   </si>
   <si>
@@ -202,6 +199,27 @@
   </si>
   <si>
     <t>Pavardė14</t>
+  </si>
+  <si>
+    <t>Mama9</t>
+  </si>
+  <si>
+    <t>Mama10</t>
+  </si>
+  <si>
+    <t>Mama11</t>
+  </si>
+  <si>
+    <t>Mama12</t>
+  </si>
+  <si>
+    <t>Mama13</t>
+  </si>
+  <si>
+    <t>Mama14</t>
+  </si>
+  <si>
+    <t>dvidešimt</t>
   </si>
 </sst>
 </file>
@@ -625,7 +643,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -636,7 +654,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -685,26 +703,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.75">
@@ -712,26 +730,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.75">
@@ -739,26 +757,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.75">
@@ -766,26 +784,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.75">
@@ -793,26 +811,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.75">
@@ -820,26 +838,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.75">
@@ -847,26 +865,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.75">
@@ -874,26 +892,26 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -911,22 +929,22 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>11</v>
@@ -967,26 +985,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.75">
@@ -994,26 +1012,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.75">
@@ -1021,26 +1039,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.75">
@@ -1048,26 +1066,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.75">
@@ -1075,26 +1093,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.75">
@@ -1102,26 +1120,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
